--- a/eval_perf/RB_method_avg_means1.xlsx
+++ b/eval_perf/RB_method_avg_means1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshg\PycharmProjects\oran-resource-opt\eval_perf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8845069B-6903-4534-AA04-DBCB20F30060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{74DC9B78-97F4-430E-B2FF-2C5FC796377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E036EA6C-72F3-4CA5-B6EB-F49DA77CAEFF}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{71D2C1B4-8365-4CA9-83E2-892096767834}"/>
   </bookViews>
   <sheets>
     <sheet name="RB_method_avg_means" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,16 @@
     <t>Max Missing Methods</t>
   </si>
   <si>
-    <t>Bellman_r3_DeepQ_v2</t>
+    <t>Expert_config</t>
   </si>
   <si>
-    <t>Bellman_r3_large_net_v2</t>
+    <t>Original</t>
   </si>
   <si>
     <t>DeepQ</t>
+  </si>
+  <si>
+    <t>TabularQ</t>
   </si>
   <si>
     <t>DeepQ_r2_from_DeepQ</t>
@@ -40,19 +43,16 @@
     <t>DeepQ_r2_from_TabularQ</t>
   </si>
   <si>
-    <t>Expert_config</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>TabularQ</t>
-  </si>
-  <si>
     <t>TabularQ_r2_from_DeepQ</t>
   </si>
   <si>
     <t>TabularQ_r2_from_TabularQ</t>
+  </si>
+  <si>
+    <t>Bellman_r3_DeepQ_v2</t>
+  </si>
+  <si>
+    <t>Bellman_r3_large_net_v2</t>
   </si>
 </sst>
 </file>
@@ -934,52 +934,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAC8E8D-EBB9-496F-B17F-15F5785D216A}">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6B3720-786E-4FDB-99E0-0F890CBC1BA0}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -987,34 +983,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.64251942299359999</v>
+        <v>0.62063778488319299</v>
       </c>
       <c r="C2" s="2">
-        <v>0.60861732265921398</v>
+        <v>0.59102459667984797</v>
       </c>
       <c r="D2">
-        <v>0.57375897265744802</v>
+        <v>0.572564339714147</v>
       </c>
       <c r="E2" s="1">
-        <v>0.59257808310202298</v>
+        <v>0.58439397292997697</v>
       </c>
       <c r="F2">
-        <v>0.64952181215719695</v>
+        <v>0.64164657308569095</v>
       </c>
       <c r="G2">
-        <v>0.60038724505805796</v>
+        <v>0.59882047710779096</v>
       </c>
       <c r="H2">
-        <v>0.63048033061393705</v>
+        <v>0.60481100485216299</v>
       </c>
       <c r="I2" s="1">
-        <v>0.62457646102758602</v>
+        <v>0.59631879474747895</v>
       </c>
       <c r="J2">
-        <v>0.66014732840484402</v>
+        <v>0.62889728148244095</v>
       </c>
       <c r="K2">
-        <v>0.628908429459347</v>
+        <v>0.60774126901916004</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1022,34 +1018,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.61930001080626695</v>
+        <v>0.61410313917673798</v>
       </c>
       <c r="C3" s="2">
-        <v>0.59948529098588199</v>
+        <v>0.58721336098140597</v>
       </c>
       <c r="D3">
-        <v>0.55082463124023195</v>
+        <v>0.56717662972584904</v>
       </c>
       <c r="E3" s="1">
-        <v>0.58037773127688896</v>
+        <v>0.57925433897856204</v>
       </c>
       <c r="F3">
-        <v>0.64700169635701399</v>
+        <v>0.63387007163821096</v>
       </c>
       <c r="G3">
-        <v>0.59823063816559496</v>
+        <v>0.59059020227136405</v>
       </c>
       <c r="H3">
-        <v>0.62055525357788499</v>
+        <v>0.59965147420205001</v>
       </c>
       <c r="I3" s="1">
-        <v>0.60723150606682497</v>
+        <v>0.59961621966261303</v>
       </c>
       <c r="J3">
-        <v>0.64104550908229496</v>
+        <v>0.62329173999854104</v>
       </c>
       <c r="K3">
-        <v>0.62070096001636099</v>
+        <v>0.61419153856916897</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1057,31 +1053,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.61266280126542905</v>
+        <v>0.604094297154111</v>
       </c>
       <c r="C4" s="2">
-        <v>0.59510810743255804</v>
+        <v>0.581100979129485</v>
       </c>
       <c r="D4">
-        <v>0.54722810119151499</v>
+        <v>0.55334322483369003</v>
       </c>
       <c r="E4" s="1">
-        <v>0.58299968670003999</v>
+        <v>0.58105839901071699</v>
       </c>
       <c r="F4">
-        <v>0.63029559306491101</v>
+        <v>0.62331392062831203</v>
       </c>
       <c r="G4">
-        <v>0.57802186647075104</v>
+        <v>0.58776193129445697</v>
       </c>
       <c r="H4">
-        <v>0.60445659968091303</v>
+        <v>0.59036869197475905</v>
       </c>
       <c r="I4" s="1">
-        <v>0.59017059323811205</v>
+        <v>0.57905111084149996</v>
       </c>
       <c r="J4">
-        <v>0.62546519366085596</v>
+        <v>0.61710730386803003</v>
       </c>
       <c r="K4">
         <v>0.60717462817422796</v>
@@ -1092,31 +1088,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.61193409287170897</v>
+        <v>0.59057508816061299</v>
       </c>
       <c r="C5" s="2">
-        <v>0.59473978054489196</v>
+        <v>0.57227780211822599</v>
       </c>
       <c r="D5">
-        <v>0.55435441606690905</v>
+        <v>0.54966134376780895</v>
       </c>
       <c r="E5" s="1">
-        <v>0.58304705801560097</v>
+        <v>0.57693632580634002</v>
       </c>
       <c r="F5">
-        <v>0.63167037729984699</v>
+        <v>0.62556191652762505</v>
       </c>
       <c r="G5">
-        <v>0.58213178128584997</v>
+        <v>0.57066815200849397</v>
       </c>
       <c r="H5">
-        <v>0.59930758522219496</v>
+        <v>0.58796346338871497</v>
       </c>
       <c r="I5" s="1">
-        <v>0.58751926150712097</v>
+        <v>0.58101465823379095</v>
       </c>
       <c r="J5">
-        <v>0.62513675367985999</v>
+        <v>0.62220901818270302</v>
       </c>
       <c r="K5">
         <v>0.60717462817422796</v>
@@ -1127,34 +1123,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.60663403158599605</v>
+        <v>0.59326369429283798</v>
       </c>
       <c r="C6" s="2">
-        <v>0.58432548797498696</v>
+        <v>0.55755527024100004</v>
       </c>
       <c r="D6">
-        <v>0.55526828689487095</v>
+        <v>0.54774480273997905</v>
       </c>
       <c r="E6" s="1">
-        <v>0.58213074710564305</v>
+        <v>0.57693632580634002</v>
       </c>
       <c r="F6">
-        <v>0.62506214021566397</v>
+        <v>0.61168156177634703</v>
       </c>
       <c r="G6">
-        <v>0.58652439423362301</v>
+        <v>0.56688723367483995</v>
       </c>
       <c r="H6">
-        <v>0.59383658312143295</v>
+        <v>0.58456593790764699</v>
       </c>
       <c r="I6" s="1">
-        <v>0.58385802122270403</v>
+        <v>0.58424977118815502</v>
       </c>
       <c r="J6">
-        <v>0.61710730386803003</v>
+        <v>0.62220901818270302</v>
       </c>
       <c r="K6">
-        <v>0.60717462817422796</v>
+        <v>0.60831737486328896</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1162,34 +1158,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.59338766997089598</v>
+        <v>0.57627729698082497</v>
       </c>
       <c r="C7" s="2">
-        <v>0.57997266678845805</v>
+        <v>0.54764943009005695</v>
       </c>
       <c r="D7">
-        <v>0.55373488304628804</v>
+        <v>0.52566273140608699</v>
       </c>
       <c r="E7" s="1">
-        <v>0.57838462759668596</v>
+        <v>0.56436625101891102</v>
       </c>
       <c r="F7">
-        <v>0.629123328071442</v>
+        <v>0.598016045388432</v>
       </c>
       <c r="G7">
-        <v>0.56894486970595504</v>
+        <v>0.57271953920461705</v>
       </c>
       <c r="H7">
-        <v>0.59187759671509899</v>
+        <v>0.58421443559736796</v>
       </c>
       <c r="I7" s="1">
-        <v>0.58805399221917898</v>
+        <v>0.576461614511523</v>
       </c>
       <c r="J7">
-        <v>0.62220901818270302</v>
+        <v>0.62642763545562596</v>
       </c>
       <c r="K7">
-        <v>0.60717462817422796</v>
+        <v>0.60831737486328896</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1197,34 +1193,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.59338766997089598</v>
+        <v>0.55475957752111504</v>
       </c>
       <c r="C8" s="2">
-        <v>0.57997266678845805</v>
+        <v>0.54777119587219603</v>
       </c>
       <c r="D8">
-        <v>0.55373488304628804</v>
+        <v>0.52498485249371696</v>
       </c>
       <c r="E8" s="1">
-        <v>0.57838462759668596</v>
+        <v>0.56628947705713895</v>
       </c>
       <c r="F8">
-        <v>0.629123328071442</v>
+        <v>0.59592415003867605</v>
       </c>
       <c r="G8">
-        <v>0.56894486970595504</v>
+        <v>0.56086231043152401</v>
       </c>
       <c r="H8">
-        <v>0.59187759671509899</v>
+        <v>0.58128576498816398</v>
       </c>
       <c r="I8" s="1">
-        <v>0.58805399221917898</v>
+        <v>0.57441553727783101</v>
       </c>
       <c r="J8">
-        <v>0.62220901818270302</v>
+        <v>0.61820905119380898</v>
       </c>
       <c r="K8">
-        <v>0.60717462817422796</v>
+        <v>0.60831737486328896</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1232,34 +1228,34 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.59138827968057694</v>
+        <v>0.55471398725430898</v>
       </c>
       <c r="C9" s="2">
-        <v>0.57412620654416202</v>
+        <v>0.55543150586721002</v>
       </c>
       <c r="D9">
-        <v>0.55026143640996095</v>
+        <v>0.52481522183124596</v>
       </c>
       <c r="E9" s="1">
-        <v>0.57579623274125902</v>
+        <v>0.56933571673435501</v>
       </c>
       <c r="F9">
-        <v>0.62754980253910297</v>
+        <v>0.610916104700434</v>
       </c>
       <c r="G9">
-        <v>0.57124629079920597</v>
+        <v>0.56086231043152401</v>
       </c>
       <c r="H9">
-        <v>0.58840347386880998</v>
+        <v>0.58943704027502497</v>
       </c>
       <c r="I9" s="1">
-        <v>0.58179877739329</v>
+        <v>0.57441553727783101</v>
       </c>
       <c r="J9">
-        <v>0.62220901818270302</v>
+        <v>0.62495758721607697</v>
       </c>
       <c r="K9">
-        <v>0.60717462817422796</v>
+        <v>0.60831737486328896</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1267,31 +1263,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.580615990219848</v>
+        <v>0.55916323845511395</v>
       </c>
       <c r="C10" s="2">
-        <v>0.56201912190583403</v>
+        <v>0.56166280125453405</v>
       </c>
       <c r="D10">
-        <v>0.53417592706540096</v>
+        <v>0.51406410698454597</v>
       </c>
       <c r="E10" s="1">
-        <v>0.57386298124067603</v>
+        <v>0.56668566981125401</v>
       </c>
       <c r="F10">
-        <v>0.61583656199839798</v>
+        <v>0.60329296294055201</v>
       </c>
       <c r="G10">
-        <v>0.56198950643322998</v>
+        <v>0.55017934532191304</v>
       </c>
       <c r="H10">
-        <v>0.58530250585766896</v>
+        <v>0.58762901552031799</v>
       </c>
       <c r="I10" s="1">
-        <v>0.58039551943189804</v>
+        <v>0.58184019332533998</v>
       </c>
       <c r="J10">
-        <v>0.60757195953661303</v>
+        <v>0.62495758721607697</v>
       </c>
       <c r="K10">
         <v>0.60831737486328896</v>
@@ -1302,249 +1298,39 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.58035997286791297</v>
+        <v>0.55796060756494004</v>
       </c>
       <c r="C11" s="2">
-        <v>0.55719519483856705</v>
+        <v>0.56668189932707502</v>
       </c>
       <c r="D11">
-        <v>0.53013598005153695</v>
+        <v>0.50907951328295298</v>
       </c>
       <c r="E11" s="1">
-        <v>0.56830863337904503</v>
+        <v>0.56885264625649901</v>
       </c>
       <c r="F11">
-        <v>0.61087208602877296</v>
+        <v>0.59932726464029895</v>
       </c>
       <c r="G11">
-        <v>0.55913417450941505</v>
+        <v>0.54434490455668005</v>
       </c>
       <c r="H11">
-        <v>0.58116474346232305</v>
+        <v>0.58061415538910099</v>
       </c>
       <c r="I11" s="1">
-        <v>0.58436235203885301</v>
+        <v>0.57920957718525301</v>
       </c>
       <c r="J11">
-        <v>0.61117713856107003</v>
+        <v>0.62495758721607697</v>
       </c>
       <c r="K11">
-        <v>0.60831737486328896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.58193935137476605</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.56191796113258297</v>
-      </c>
-      <c r="D12">
-        <v>0.53797913642138295</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.57239185293702499</v>
-      </c>
-      <c r="F12">
-        <v>0.60788613940748104</v>
-      </c>
-      <c r="G12">
-        <v>0.56765527004759997</v>
-      </c>
-      <c r="H12">
-        <v>0.58680773785127105</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.58427961109044502</v>
-      </c>
-      <c r="J12">
-        <v>0.61820905119380898</v>
-      </c>
-      <c r="K12">
-        <v>0.60831737486328896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.55965491833973102</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.54944849085173797</v>
-      </c>
-      <c r="D13">
-        <v>0.52678333839582503</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.57690104566182199</v>
-      </c>
-      <c r="F13">
-        <v>0.59956810345623501</v>
-      </c>
-      <c r="G13">
-        <v>0.55709370402946601</v>
-      </c>
-      <c r="H13">
-        <v>0.58081530472717702</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.57877890641207297</v>
-      </c>
-      <c r="J13">
-        <v>0.62495758721607697</v>
-      </c>
-      <c r="K13">
-        <v>0.60831737486328896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.55989323391196</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.55871266697835797</v>
-      </c>
-      <c r="D14">
-        <v>0.52161840525173797</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.56611956674406105</v>
-      </c>
-      <c r="F14">
-        <v>0.59456283164439505</v>
-      </c>
-      <c r="G14">
-        <v>0.55203494716152801</v>
-      </c>
-      <c r="H14">
-        <v>0.57944237853832803</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.58554466742310596</v>
-      </c>
-      <c r="J14">
-        <v>0.62495758721607697</v>
-      </c>
-      <c r="K14">
-        <v>0.60831737486328896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.56327308464473103</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.57581101036115201</v>
-      </c>
-      <c r="D15">
-        <v>0.51603569582998099</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.56668566981125401</v>
-      </c>
-      <c r="F15">
-        <v>0.60677206862436195</v>
-      </c>
-      <c r="G15">
-        <v>0.55063210260173501</v>
-      </c>
-      <c r="H15">
-        <v>0.58864415004443604</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.58554466742310596</v>
-      </c>
-      <c r="J15">
-        <v>0.62495758721607697</v>
-      </c>
-      <c r="K15">
-        <v>0.60831737486328896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.56018836971671904</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.56737907122305098</v>
-      </c>
-      <c r="D16">
-        <v>0.51494265641761305</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.56668566981125401</v>
-      </c>
-      <c r="F16">
-        <v>0.60640595451967505</v>
-      </c>
-      <c r="G16">
-        <v>0.54326421026345795</v>
-      </c>
-      <c r="H16">
-        <v>0.58762901552031799</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.58184019332533998</v>
-      </c>
-      <c r="J16">
-        <v>0.62495758721607697</v>
-      </c>
-      <c r="K16">
-        <v>0.60831737486328896</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.55796060756494004</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.56668189932707502</v>
-      </c>
-      <c r="D17">
-        <v>0.50907951328295298</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.56885264625649901</v>
-      </c>
-      <c r="F17">
-        <v>0.59932726464029895</v>
-      </c>
-      <c r="G17">
-        <v>0.54434490455668005</v>
-      </c>
-      <c r="H17">
-        <v>0.58061415538910099</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.57920957718525301</v>
-      </c>
-      <c r="J17">
-        <v>0.62495758721607697</v>
-      </c>
-      <c r="K17">
         <v>0.60831737486328896</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:K2">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1556,7 +1342,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:K3">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1568,7 +1354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:K4">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1580,7 +1366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:K5">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1592,138 +1378,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:K6">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:K7">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:K8">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:K9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:K10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:K11">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:K12">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:K13">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:K14">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:K15">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:K16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:K17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
